--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13515"/>
+    <workbookView windowWidth="28800" windowHeight="13515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="枚举配置表1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>E:路由类型-玩家ID:ROUTE:UID:0</t>
   </si>
@@ -57,10 +57,10 @@
     <t>E:服务器类型-Gm:SERVER:Gm:3</t>
   </si>
   <si>
-    <t>Type/string</t>
-  </si>
-  <si>
-    <t>Protobuf/string</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Protobuf</t>
   </si>
   <si>
     <t>配置表支持的类型</t>
@@ -111,6 +111,9 @@
     <t>bytes</t>
   </si>
   <si>
+    <t>pb.Reward</t>
+  </si>
+  <si>
     <t>Reward</t>
   </si>
   <si>
@@ -168,7 +171,7 @@
     <t>repeated string</t>
   </si>
   <si>
-    <t>[]Reward</t>
+    <t>[]pb.Reward</t>
   </si>
   <si>
     <t>repeated Reward</t>
@@ -1145,13 +1148,13 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.125" style="4" customWidth="1"/>
     <col min="2" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1204,15 +1207,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
@@ -1236,192 +1239,194 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="3:3">
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,10 +1207,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1239,199 +1239,196 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C22"/>
+    <mergeCell ref="C2:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13515" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="枚举配置表1" sheetId="2" r:id="rId1"/>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1209,8 +1209,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/configure/table/enum.xlsx
+++ b/configure/table/enum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840"/>
+    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局表" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>E|装备类型-剑|PropertyType|Sword|3</t>
   </si>
   <si>
-    <t>enum|全局表</t>
+    <t>@enum|全局表</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1009,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelCol="1"/>
@@ -1020,7 +1020,7 @@
     <col min="3" max="3" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="16.8" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="16.8" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="16.8" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" ht="16.8" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1078,8 +1078,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
